--- a/daybook.xlsx
+++ b/daybook.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>这东西就是个日程管理软件或方法，知道了一本叫Getting Things Done的书</t>
+  </si>
+  <si>
+    <t>思考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上周未终于和那个SEO聊过了，3-4个编辑每天100-120伪原创，半年能见每天100IP，如果3-4个留信息，也就是一天3-4K如果只有一个就是1k,根本是没有钱找编辑，不算我的话，一个编辑要3-4K。想搞机器翻译但这真的是大山，理智说无数人搞这个没有一个OK的，就我这个能行？想做滑雪机也一样，3个力的方向12以上的带子，估计要10W吧，键鼠一体有了，就算没有也要1-2W费用，到最后有几个人能买？想清什么是我要的。出国，孩子有更好的教育，我的父母没有管，最后还是学英语和自考吧，哪里都有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学英语去了短期长期国内国外都要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -629,8 +641,8 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1150,23 +1162,41 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="8">
+        <v>41863</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.82777777777777783</v>
+      </c>
       <c r="E28" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5972222222222276E-2</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="8">
+        <v>41863</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.82777777777777783</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.82777777777777783</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
